--- a/natural disaster JPN2009-2018.xlsx
+++ b/natural disaster JPN2009-2018.xlsx
@@ -10,14 +10,14 @@
     <sheet name="y2901000" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">y2901000!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">y2901000!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -66,9 +66,6 @@
     </r>
   </si>
   <si>
-    <t>Damage to persons (persons)</t>
-  </si>
-  <si>
     <t>Killed</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   <si>
     <t>Injured slightly</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
 </sst>
 </file>
 
@@ -93,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="・団"/>
@@ -107,18 +101,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -633,17 +615,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,131 +643,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -784,43 +766,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1239,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1257,7 +1224,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="48.75" customHeight="1" spans="1:8">
+    <row r="1" ht="48.75" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1270,352 +1237,336 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" ht="17.25" customHeight="1" spans="1:24">
+      <c r="A2" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6259</v>
+      </c>
+      <c r="C2" s="6">
+        <v>15258</v>
+      </c>
+      <c r="D2" s="6">
+        <v>246241</v>
+      </c>
+      <c r="E2" s="7">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>284</v>
+      </c>
+      <c r="H2" s="6">
+        <v>807</v>
+      </c>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A3" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="10">
-        <v>6259</v>
-      </c>
-      <c r="C3" s="10">
-        <v>15258</v>
-      </c>
-      <c r="D3" s="10">
-        <v>246241</v>
-      </c>
-      <c r="E3" s="11">
-        <v>113</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10">
-        <v>284</v>
-      </c>
-      <c r="H3" s="10">
-        <v>807</v>
+      <c r="A3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2828</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6200</v>
+      </c>
+      <c r="D3" s="6">
+        <v>206729</v>
+      </c>
+      <c r="E3" s="7">
+        <v>84</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>281</v>
+      </c>
+      <c r="H3" s="6">
+        <v>616</v>
       </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A4" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2828</v>
-      </c>
-      <c r="C4" s="10">
-        <v>6200</v>
-      </c>
-      <c r="D4" s="10">
-        <v>206729</v>
-      </c>
-      <c r="E4" s="11">
-        <v>84</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
-        <v>281</v>
-      </c>
-      <c r="H4" s="10">
-        <v>616</v>
+      <c r="A4" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="6">
+        <v>243898</v>
+      </c>
+      <c r="C4" s="6">
+        <v>142417</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6418728</v>
+      </c>
+      <c r="E4" s="7">
+        <v>17051</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2942</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1574</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7127</v>
       </c>
       <c r="X4" s="1"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A5" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="10">
-        <v>243898</v>
-      </c>
-      <c r="C5" s="10">
-        <v>142417</v>
-      </c>
-      <c r="D5" s="10">
-        <v>6418728</v>
-      </c>
-      <c r="E5" s="11">
-        <v>17051</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2942</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1574</v>
-      </c>
-      <c r="H5" s="10">
-        <v>7127</v>
+      <c r="A5" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="6">
+        <v>17048</v>
+      </c>
+      <c r="C5" s="6">
+        <v>27210</v>
+      </c>
+      <c r="D5" s="6">
+        <v>397221</v>
+      </c>
+      <c r="E5" s="7">
+        <v>189</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>996</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1908</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A6" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="10">
-        <v>17048</v>
-      </c>
-      <c r="C6" s="10">
-        <v>27210</v>
-      </c>
-      <c r="D6" s="10">
-        <v>397221</v>
-      </c>
-      <c r="E6" s="11">
-        <v>189</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>996</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1908</v>
+      <c r="A6" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8392</v>
+      </c>
+      <c r="C6" s="6">
+        <v>17691</v>
+      </c>
+      <c r="D6" s="6">
+        <v>365918</v>
+      </c>
+      <c r="E6" s="7">
+        <v>166</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>644</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1337</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A7" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="10">
-        <v>8392</v>
-      </c>
-      <c r="C7" s="10">
-        <v>17691</v>
-      </c>
-      <c r="D7" s="10">
-        <v>365918</v>
-      </c>
-      <c r="E7" s="11">
-        <v>166</v>
-      </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10">
-        <v>644</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1337</v>
+      <c r="A7" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8442</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13874</v>
+      </c>
+      <c r="D7" s="6">
+        <v>392312</v>
+      </c>
+      <c r="E7" s="7">
+        <v>272</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>964</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2457</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A8" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="10">
-        <v>8442</v>
-      </c>
-      <c r="C8" s="10">
-        <v>13874</v>
-      </c>
-      <c r="D8" s="10">
-        <v>392312</v>
-      </c>
-      <c r="E8" s="11">
-        <v>272</v>
-      </c>
-      <c r="F8" s="10">
-        <v>8</v>
-      </c>
-      <c r="G8" s="10">
-        <v>964</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2457</v>
+      <c r="A8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10422</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23857</v>
+      </c>
+      <c r="D8" s="6">
+        <v>280968</v>
+      </c>
+      <c r="E8" s="8">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>368</v>
+      </c>
+      <c r="H8" s="6">
+        <v>778</v>
       </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A9" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10422</v>
-      </c>
-      <c r="C9" s="10">
-        <v>23857</v>
-      </c>
-      <c r="D9" s="10">
-        <v>280968</v>
-      </c>
-      <c r="E9" s="12">
-        <v>64</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>368</v>
-      </c>
-      <c r="H9" s="10">
-        <v>778</v>
+      <c r="A9" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="6">
+        <v>85190</v>
+      </c>
+      <c r="C9" s="6">
+        <v>60880</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1755316</v>
+      </c>
+      <c r="E9" s="8">
+        <v>293</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1473</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2367</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A10" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="10">
-        <v>85190</v>
-      </c>
-      <c r="C10" s="10">
-        <v>60880</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1755316</v>
-      </c>
-      <c r="E10" s="12">
-        <v>293</v>
-      </c>
-      <c r="F10" s="10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1473</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2367</v>
+      <c r="A10" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7338</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14892</v>
+      </c>
+      <c r="D10" s="6">
+        <v>599422</v>
+      </c>
+      <c r="E10" s="8">
+        <v>127</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>455</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1054</v>
       </c>
       <c r="X10" s="1"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A11" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="10">
-        <v>7338</v>
-      </c>
-      <c r="C11" s="10">
-        <v>14892</v>
-      </c>
-      <c r="D11" s="10">
-        <v>599422</v>
-      </c>
-      <c r="E11" s="12">
-        <v>127</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>455</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1054</v>
+      <c r="A11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="6">
+        <v>29926</v>
+      </c>
+      <c r="C11" s="6">
+        <v>62548</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1171860</v>
+      </c>
+      <c r="E11" s="8">
+        <v>444</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>913</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3660</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A12" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="10">
-        <v>29926</v>
-      </c>
-      <c r="C12" s="10">
-        <v>62548</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1171860</v>
-      </c>
-      <c r="E12" s="12">
-        <v>444</v>
-      </c>
-      <c r="F12" s="10">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10">
-        <v>913</v>
-      </c>
-      <c r="H12" s="10">
-        <v>3660</v>
-      </c>
-      <c r="X12" s="1"/>
+    <row r="12" ht="33" customHeight="1" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
-    <row r="13" ht="33" customHeight="1" spans="1:14">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+    <row r="13" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
-    <row r="14" ht="34.5" customHeight="1" spans="1:8">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
+    <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" customHeight="1" spans="2:14">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+    <row r="16" customHeight="1" spans="2:14">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.511811023622047" bottom="0.511811023622047" header="0.31496062992126" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="85" fitToWidth="2" orientation="portrait"/>

--- a/natural disaster JPN2009-2018.xlsx
+++ b/natural disaster JPN2009-2018.xlsx
@@ -72,10 +72,10 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>Injured seriously</t>
+    <t>Injuried seriously</t>
   </si>
   <si>
-    <t>Injured slightly</t>
+    <t>Injuried slightly</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
